--- a/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172FD11A-1934-4448-B7AF-6743214DB081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739BFE8-74D7-45C4-A794-C94B6C0C71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXPLICAÇÃO" sheetId="10" r:id="rId2"/>
-    <sheet name="EXERCICIO 1" sheetId="15" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
+    <sheet name="EXERCICIO 1" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="anscount" hidden="1">2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="50">
   <si>
     <t>NOMES</t>
   </si>
@@ -207,6 +208,9 @@
   </si>
   <si>
     <t>Funções CONTSE e CONTSES</t>
+  </si>
+  <si>
+    <t>FUNÇÃO CONTSES</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1091,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1374,6 +1378,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2097,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2227,9 @@
       <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>2</v>
+      </c>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
@@ -2231,9 +2246,12 @@
       <c r="E10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="F10" s="109">
+        <f>COUNTIF($B$11:$B$40,F8)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
@@ -2500,7 +2518,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>37</v>
@@ -3063,10 +3081,91 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D235C6E9-4084-432F-AEBE-280E2CE9FB00}">
+          <x14:formula1>
+            <xm:f>Planilha1!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>F8:H8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C86ED-B037-492F-AEF8-7B5D186CA2A5}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P502"/>
   <sheetViews>

--- a/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739BFE8-74D7-45C4-A794-C94B6C0C71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5940457-CACA-40A6-B993-357034157867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXPLICAÇÃO" sheetId="10" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
-    <sheet name="EXERCICIO 1" sheetId="15" r:id="rId4"/>
+    <sheet name="EXERCICIO 1" sheetId="15" r:id="rId3"/>
+    <sheet name="BD Lista" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="anscount" hidden="1">2</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="50">
   <si>
     <t>NOMES</t>
   </si>
@@ -1091,7 +1091,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1241,15 +1241,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,18 +1304,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,6 +1366,18 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2110,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C78"/>
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,11 +2218,11 @@
       <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="2:17" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="23"/>
@@ -2246,12 +2237,12 @@
       <c r="E10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="102">
         <f>COUNTIF($B$11:$B$40,F8)</f>
         <v>6</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
@@ -2498,9 +2489,11 @@
       <c r="G42" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
+      <c r="H42" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="2:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G43" s="22"/>
@@ -2509,9 +2502,11 @@
       <c r="G44" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
+      <c r="H44" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="2:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="22"/>
@@ -2523,9 +2518,12 @@
       <c r="G46" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="102">
+        <f>COUNTIFS(B49:B78,H42,C49:C78,H44)</f>
+        <v>4</v>
+      </c>
+      <c r="I46" s="103"/>
+      <c r="J46" s="104"/>
     </row>
     <row r="47" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
@@ -2877,10 +2875,10 @@
       <c r="H79" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I79" s="66">
+      <c r="I79" s="63">
         <v>42014</v>
       </c>
-      <c r="J79" s="67"/>
+      <c r="J79" s="64"/>
     </row>
     <row r="80" spans="2:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H80" s="22"/>
@@ -2891,10 +2889,10 @@
       <c r="H81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I81" s="66">
+      <c r="I81" s="63">
         <v>42017</v>
       </c>
-      <c r="J81" s="67"/>
+      <c r="J81" s="64"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
@@ -2918,12 +2916,15 @@
       <c r="E84" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="86" t="s">
+      <c r="G84" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="86"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="88"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="105">
+        <f>COUNTIFS(D85:D92,"&gt;"&amp;I79,D85:D92,"&lt;"&amp;I81)</f>
+        <v>1</v>
+      </c>
+      <c r="J84" s="106"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="40" t="s">
@@ -2938,10 +2939,10 @@
       <c r="E85" s="43">
         <v>87</v>
       </c>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="90"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="108"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="28" t="s">
@@ -3012,11 +3013,11 @@
       <c r="E90" s="29">
         <v>44</v>
       </c>
-      <c r="H90" s="71" t="s">
+      <c r="H90" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="72"/>
-      <c r="J90" s="73"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="70"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -3031,9 +3032,9 @@
       <c r="E91" s="29">
         <v>168</v>
       </c>
-      <c r="H91" s="74"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="76"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="73"/>
     </row>
     <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="30" t="s">
@@ -3048,21 +3049,21 @@
       <c r="E92" s="31">
         <v>158</v>
       </c>
-      <c r="H92" s="77"/>
-      <c r="I92" s="78"/>
-      <c r="J92" s="79"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="76"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H93" s="80" t="s">
+      <c r="H93" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="I93" s="81"/>
-      <c r="J93" s="82"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="79"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H94" s="83"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="85"/>
+      <c r="H94" s="80"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3083,12 +3084,18 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D235C6E9-4084-432F-AEBE-280E2CE9FB00}">
           <x14:formula1>
-            <xm:f>Planilha1!$A$2:$A$1048576</xm:f>
+            <xm:f>'BD Lista'!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:H8</xm:sqref>
+          <xm:sqref>F8:H8 H42:J42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8321CBA6-A3D7-4443-8D15-670CC9F80925}">
+          <x14:formula1>
+            <xm:f>'BD Lista'!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>H44:J44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3097,80 +3104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C86ED-B037-492F-AEF8-7B5D186CA2A5}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P502"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,10 +3201,10 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="23"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="102"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="95"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -3287,10 +3225,10 @@
         <v>32</v>
       </c>
       <c r="J6" s="49"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="105"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -3308,10 +3246,10 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="23"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -3447,10 +3385,10 @@
         <v>390</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -3467,10 +3405,10 @@
         <v>526</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="96"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="89"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -3487,10 +3425,10 @@
         <v>868</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -3627,10 +3565,10 @@
         <v>1131</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -3647,10 +3585,10 @@
         <v>644</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="96"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -3667,10 +3605,10 @@
         <v>709</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="99"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="92"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -3807,10 +3745,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="I32" s="23"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="86"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -3831,10 +3769,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="49"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="96"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="89"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -3851,10 +3789,10 @@
         <v>1030</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="99"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="92"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -10430,4 +10368,2621 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C86ED-B037-492F-AEF8-7B5D186CA2A5}">
+  <dimension ref="A1:E501"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="28">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="28">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="28">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="28">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="28">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="28">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="28">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="28">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="28">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="28">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="28">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="28">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="28">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="28">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="28">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="28">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="28">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" s="28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="28">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="28">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="28">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="28">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" s="28">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" s="28">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" s="28">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" s="28">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" s="28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" s="28">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" s="28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="28">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="28">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="28">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="28">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="28">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="28">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="28">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="28">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" s="28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="28">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="28">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" s="28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" s="28">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="28">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="28">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="28">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="28">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="28">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="28">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="28">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="28">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="28">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="28">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="28">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="28">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="28">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="28">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="28">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="28">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="28">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="28">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="28">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="28">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="28">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="28">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="28">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="28">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="28">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="28">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="28">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="28">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="28">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="28">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="28">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="28">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="28">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="28">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="28">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="28">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="28">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="28">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="28">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="28">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="28">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="28">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="28">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="28">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="28">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="28">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="28">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="28">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="28">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="28">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="28">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="28">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="28">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="28">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="28">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="28">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="28">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="28">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="28">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="28">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="28">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="28">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="28">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="28">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="28">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="28">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="28">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="28">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="28">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="28">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="28">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="28">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="28">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="28">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="28">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="28">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="28">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="28">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="28">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="28">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="28">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="28">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="28">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="28">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="28">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="28">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="28">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="28">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="28">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="28">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="28">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="28">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="28">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="28">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="28">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="28">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="28">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="28">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="28">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="28">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="28">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="28">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="28">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="28">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="28">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="28">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="28">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="28">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="28">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="28">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="28">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="28">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="28">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="28">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="28">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="28">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="28">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="28">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="28">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="28">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="28">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="28">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="28">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="28">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="28">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="28">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="28">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="28">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="28">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="28">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="28">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="28">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="28">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="28">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="28">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="28">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="28">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="28">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="28">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="28">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="28">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="28">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="28">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="28">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="28">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="28">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="28">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="28">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="28">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="28">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="28">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="28">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="28">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="28">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="28">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="28">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="28">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="28">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="28">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="28">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="28">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="28">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" s="28">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="28">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="28">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="28">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="28">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" s="28">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" s="28">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="28">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="28">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="28">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="28">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="28">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="28">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="28">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="28">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="28">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="28">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="28">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="28">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="28">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="28">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="28">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="28">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="28">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="28">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="28">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="28">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="28">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="28">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" s="28">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="28">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="28">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" s="28">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" s="28">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="28">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="28">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="28">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="28">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="28">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="28">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="28">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="28">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="28">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="28">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="28">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="28">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="28">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="28">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="28">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="28">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="28">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="28">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="28">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="28">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="28">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="28">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="28">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="28">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="28">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="28">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="28">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="28">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="28">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="28">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" s="28">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" s="28">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" s="28">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" s="28">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" s="28">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" s="28">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" s="28">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" s="28">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="28">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="28">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="28">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="28">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="28">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="28">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="28">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="28">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" s="28">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" s="28">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" s="28">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" s="28">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" s="28">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" s="28">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" s="28">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" s="28">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464" s="28">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" s="28">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466" s="28">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" s="28">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468" s="28">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" s="28">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470" s="28">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" s="28">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472" s="28">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" s="28">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474" s="28">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" s="28">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476" s="28">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" s="28">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478" s="28">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" s="28">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480" s="28">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" s="28">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" s="28">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" s="28">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" s="28">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" s="28">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="28">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" s="28">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" s="28">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" s="28">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" s="28">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" s="28">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" s="28">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" s="28">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" s="28">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" s="28">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="28">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="28">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="28">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" s="28">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E501" s="30">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5940457-CACA-40A6-B993-357034157867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82473D-0F68-4B15-BE5A-BBE0CD736720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="53">
   <si>
     <t>NOMES</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>FUNÇÃO CONTSES</t>
+  </si>
+  <si>
+    <t>Maneira 01</t>
+  </si>
+  <si>
+    <t>Maneira 02</t>
+  </si>
+  <si>
+    <t>Maneira 03</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1081,6 +1090,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1091,7 +1199,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1331,33 +1439,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1378,6 +1459,45 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2237,12 +2357,12 @@
       <c r="E10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="93">
         <f>COUNTIF($B$11:$B$40,F8)</f>
         <v>6</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
@@ -2518,12 +2638,12 @@
       <c r="G46" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="102">
+      <c r="H46" s="93">
         <f>COUNTIFS(B49:B78,H42,C49:C78,H44)</f>
         <v>4</v>
       </c>
-      <c r="I46" s="103"/>
-      <c r="J46" s="104"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="95"/>
     </row>
     <row r="47" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
@@ -2920,11 +3040,11 @@
         <v>38</v>
       </c>
       <c r="H84" s="83"/>
-      <c r="I84" s="105">
+      <c r="I84" s="96">
         <f>COUNTIFS(D85:D92,"&gt;"&amp;I79,D85:D92,"&lt;"&amp;I81)</f>
         <v>1</v>
       </c>
-      <c r="J84" s="106"/>
+      <c r="J84" s="97"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="40" t="s">
@@ -2941,8 +3061,8 @@
       </c>
       <c r="G85" s="83"/>
       <c r="H85" s="83"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="108"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="99"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="28" t="s">
@@ -3107,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P502"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B502"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,6 +3238,8 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3180,13 +3302,15 @@
       <c r="I4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="49"/>
+      <c r="J4" s="49">
+        <v>3</v>
+      </c>
       <c r="L4" s="50" t="s">
         <v>37</v>
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -3201,13 +3325,22 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="23"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="95"/>
+      <c r="L5" s="100">
+        <f>ABS(J4-J6)+1</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="103">
+        <f>COUNTIFS($B$3:$B$502,"&gt;=" &amp; $J$4,$B$3:$B$502,"&lt;=" &amp; $J$6)</f>
+        <v>8</v>
+      </c>
+      <c r="N5" s="106"/>
+      <c r="O5" s="109">
+        <f>COUNTIF($B$3:$B$502, "&lt;=" &amp; $J$6) - COUNTIF($B$3:$B$502, "&lt;" &amp; $J$4)</f>
+        <v>8</v>
+      </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -3224,14 +3357,16 @@
       <c r="I6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="98"/>
+      <c r="J6" s="49">
+        <v>10</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="110"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28">
         <v>5</v>
       </c>
@@ -3246,10 +3381,10 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="23"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="101"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="111"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -3266,6 +3401,16 @@
         <v>580</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="112"/>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -3365,7 +3510,9 @@
       <c r="I13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="49" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" s="50" t="s">
         <v>37</v>
       </c>
@@ -3385,7 +3532,10 @@
         <v>390</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="84">
+        <f>COUNTIF($C$3:$C$502,J13)</f>
+        <v>104</v>
+      </c>
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="86"/>
@@ -3545,13 +3695,15 @@
       <c r="I22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="L22" s="50" t="s">
         <v>37</v>
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <v>21</v>
       </c>
@@ -3565,13 +3717,16 @@
         <v>1131</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="L23" s="84"/>
+      <c r="L23" s="84">
+        <f>COUNTIF($D$3:$D$502,J22)</f>
+        <v>65</v>
+      </c>
       <c r="M23" s="85"/>
       <c r="N23" s="85"/>
       <c r="O23" s="86"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>22</v>
       </c>
@@ -3591,7 +3746,7 @@
       <c r="O24" s="89"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>23</v>
       </c>
@@ -3724,7 +3879,9 @@
       <c r="I31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="49" t="s">
+        <v>24</v>
+      </c>
       <c r="L31" s="50" t="s">
         <v>37</v>
       </c>
@@ -3745,7 +3902,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="I32" s="23"/>
-      <c r="L32" s="84"/>
+      <c r="L32" s="84">
+        <f>COUNTIFS($C$3:$C$502,$J$31,$D$3:$D$502,J33)</f>
+        <v>10</v>
+      </c>
       <c r="M32" s="85"/>
       <c r="N32" s="85"/>
       <c r="O32" s="86"/>
@@ -3768,7 +3928,9 @@
       <c r="I33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="49"/>
+      <c r="J33" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="L33" s="87"/>
       <c r="M33" s="88"/>
       <c r="N33" s="88"/>
@@ -10360,13 +10522,40 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="L32:O34"/>
-    <mergeCell ref="L5:O7"/>
     <mergeCell ref="L14:O16"/>
     <mergeCell ref="L23:O25"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DF3D0B0-8250-4FBF-B874-BFDE1A950666}">
+          <x14:formula1>
+            <xm:f>'BD Lista'!$E$2:$E$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>J4 J6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A531986E-BE54-499C-9CCB-00234466995D}">
+          <x14:formula1>
+            <xm:f>'BD Lista'!$C$2:$C$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>J13 J31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A2C08CE-4DD7-47E0-A1FB-6681171D4E2F}">
+          <x14:formula1>
+            <xm:f>'BD Lista'!$D$2:$D$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>J22 J33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10374,7 +10563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C86ED-B037-492F-AEF8-7B5D186CA2A5}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A1048528" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
